--- a/medicine/Enfance/Christophe_Gallaz/Christophe_Gallaz.xlsx
+++ b/medicine/Enfance/Christophe_Gallaz/Christophe_Gallaz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe Gallaz, né à Valeyres-sous-Rances le 31 octobre 1948, est un écrivain et journaliste suisse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chroniqueur et écrivain, Christophe Gallaz passe son enfance à Assens et dans les hauts de Lausanne.
 Il commence par étudier le droit à Lausanne puis bifurque en 1973 vers le journalisme et l'édition. Sa carrière débute par un stage à L'AGEFI. Dès 1980, il tient une chronique hebdomadaire pour le quotidien lausannois Le Matin. Il assume ensuite une chronique de réflexion sur les événements sportifs au Nouveau Quotidien et collabore régulièrement au quotidien Libération. 
 Auteur de nouvelles, Les chagrins magnifiques (1982), Les musiques défaites (1989) et d'essais, La parole détruite - médias et violence (1995), Euros, Europe, Européens (2001), il écrit une vingtaine d'ouvrages pour les enfants, en collaboration avec les illustrateurs Étienne Delessert ou Roberto Innocenti : Contes et légendes de la Suisse (1998), Rose blanche (1985). 
-Pour les illustrations de son ouvrage Rose Blanche, Roberto Innocenti reçoit en 1985 la Pomme d'Or de Bratislava[1] (BIB), et en 1986 la "Mention" Premio Grafico Fiera di Bologna per la Gioventù de la Foire du livre de jeunesse de Bologne[2].
-En 1989, Christophe Gallaz est lauréat du Prix Saint-Exupéry[3] pour Mozart, illustré par Georges Lemoine. L'ouvrage figure dans la « Honour List » 1990[4] de l' IBBY.
+Pour les illustrations de son ouvrage Rose Blanche, Roberto Innocenti reçoit en 1985 la Pomme d'Or de Bratislava (BIB), et en 1986 la "Mention" Premio Grafico Fiera di Bologna per la Gioventù de la Foire du livre de jeunesse de Bologne.
+En 1989, Christophe Gallaz est lauréat du Prix Saint-Exupéry pour Mozart, illustré par Georges Lemoine. L'ouvrage figure dans la « Honour List » 1990 de l' IBBY.
 Il apporte fréquemment sa contribution littéraire à des livres de photographie et collabore régulièrement, pour le scénario, avec des cinéastes suisses et français.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une Chambre pleine d'oiseaux, ill. par Christine Berthoin, Lausanne, Éd. L'Âge d'homme, 1982, (rééd. 2009)
 Le Goût : Petit Croque et le loup, ill. par John Howe, Paris/St-Suplice, Gallimard/Tournesol, 1982.
@@ -604,12 +620,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1985 : Pomme d'Or de Bratislava[1] (BIB) pour les illustrations de Roberto Innocenti de son  ouvrage jeunesse Rose blanche.
-1986 : "Mention" Premio Grafico Fiera di Bologna per la Gioventù de  la Foire du livre de jeunesse de Bologne[2] (Italie) pour les illustrations de Roberto Innocenti de Rose blanche.
-1989 : Prix Saint-Exupéry[3] pour Mozart, illustré par Georges Lemoine
-1990 : (international) « Honour List »[4] de l' IBBY, Catégorie Auteur, pour Mozart (illustrations de Georges Lemoine)</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1985 : Pomme d'Or de Bratislava (BIB) pour les illustrations de Roberto Innocenti de son  ouvrage jeunesse Rose blanche.
+1986 : "Mention" Premio Grafico Fiera di Bologna per la Gioventù de  la Foire du livre de jeunesse de Bologne (Italie) pour les illustrations de Roberto Innocenti de Rose blanche.
+1989 : Prix Saint-Exupéry pour Mozart, illustré par Georges Lemoine
+1990 : (international) « Honour List » de l' IBBY, Catégorie Auteur, pour Mozart (illustrations de Georges Lemoine)</t>
         </is>
       </c>
     </row>
@@ -637,7 +655,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« Christophe Gallaz », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Institut suisse de littérature pour la jeunesse, Écrire et illustrer pour les enfants qui fait quoi en Suisse?, p. 87-88
